--- a/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Workspace.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Workspace.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\src\app-catalog-main\installations-no-std\isp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>WS000000</t>
   </si>
   <si>
-    <t>Imprese Domestico</t>
-  </si>
-  <si>
     <t>CUSTOMER</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>WS000000_TARGET</t>
+  </si>
+  <si>
+    <t>Corporate</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +996,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -1064,19 +1064,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,19 +1191,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Workspace.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Workspace.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Workspace</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Corporate</t>
+  </si>
+  <si>
+    <t>BL000001</t>
+  </si>
+  <si>
+    <t>R-WS00000-BL000001</t>
   </si>
 </sst>
 </file>
@@ -949,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,15 +1095,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
   </cols>
@@ -1132,6 +1139,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1143,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Workspace.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Workspace.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="r Workspace_TargetVariable" sheetId="5" r:id="rId4"/>
     <sheet name="Fields definition" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
   <si>
     <t>Workspace</t>
   </si>
@@ -223,13 +223,85 @@
     <t>BL000001</t>
   </si>
   <si>
+    <t>WS000001</t>
+  </si>
+  <si>
+    <t>WS000002</t>
+  </si>
+  <si>
+    <t>WS000003</t>
+  </si>
+  <si>
+    <t>WS000004</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Banche</t>
+  </si>
+  <si>
+    <t>NBFI</t>
+  </si>
+  <si>
+    <t>Enti Pubblici</t>
+  </si>
+  <si>
+    <t>WS000001_CUSTOMER</t>
+  </si>
+  <si>
+    <t>WS000002_CUSTOMER</t>
+  </si>
+  <si>
+    <t>WS000003_CUSTOMER</t>
+  </si>
+  <si>
+    <t>WS000004_CUSTOMER</t>
+  </si>
+  <si>
+    <t>R-WS00000-BL000000</t>
+  </si>
+  <si>
+    <t>BL000000</t>
+  </si>
+  <si>
+    <t>BL000002</t>
+  </si>
+  <si>
+    <t>BL000003</t>
+  </si>
+  <si>
+    <t>BL000004</t>
+  </si>
+  <si>
+    <t>WS000001_TARGET</t>
+  </si>
+  <si>
+    <t>WS000002_TARGET</t>
+  </si>
+  <si>
+    <t>WS000003_TARGET</t>
+  </si>
+  <si>
+    <t>WS000004_TARGET</t>
+  </si>
+  <si>
     <t>R-WS00000-BL000001</t>
+  </si>
+  <si>
+    <t>R-WS00000-BL000002</t>
+  </si>
+  <si>
+    <t>R-WS00000-BL000003</t>
+  </si>
+  <si>
+    <t>R-WS00000-BL000004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,6 +838,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -801,6 +890,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,13 +1108,81 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1259,86 @@
         <v>28</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1095,16 +1349,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
   </cols>
@@ -1144,16 +1399,84 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1165,16 +1488,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
@@ -1227,6 +1550,86 @@
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
